--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="120">
   <si>
     <t>Material</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Turquoise </t>
   </si>
   <si>
-    <t>Moonstone</t>
-  </si>
-  <si>
     <t>Quartz </t>
   </si>
   <si>
@@ -196,9 +193,6 @@
   </si>
   <si>
     <t>Obsidian</t>
-  </si>
-  <si>
-    <t>Bismuth </t>
   </si>
   <si>
     <t>Spinel</t>
@@ -528,8 +522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:X67" totalsRowShown="0">
-  <autoFilter ref="A3:X67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:X65" totalsRowShown="0">
+  <autoFilter ref="A3:X65">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="5"/>
@@ -879,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X67"/>
+  <dimension ref="A2:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -971,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R3" t="s">
         <v>22</v>
@@ -1367,7 +1361,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1441,7 +1435,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1557,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P11">
         <v>0.01</v>
@@ -1631,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P12">
         <v>0.01</v>
@@ -1700,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P13">
         <v>0.01</v>
@@ -1769,7 +1763,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P14">
         <v>0.02</v>
@@ -1796,7 +1790,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1838,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P15">
         <v>0.01</v>
@@ -1907,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P16">
         <v>0.03</v>
@@ -1976,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P17">
         <v>5.0000000000000001E-3</v>
@@ -2045,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P18">
         <v>5.0000000000000001E-3</v>
@@ -2114,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P19">
         <v>0.01</v>
@@ -2183,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P20">
         <v>0.02</v>
@@ -2252,7 +2246,7 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P21">
         <v>0.03</v>
@@ -2321,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P22">
         <v>0.01</v>
@@ -2390,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P23">
         <v>0.01</v>
@@ -2459,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P24">
         <v>0.04</v>
@@ -2492,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>8</v>
@@ -2525,16 +2519,16 @@
         <v>0.2</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="P25">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R25" s="4">
         <v>0.6</v>
@@ -2561,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
@@ -2600,10 +2594,10 @@
         <v>9</v>
       </c>
       <c r="P26">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="4">
         <v>0.6</v>
@@ -2630,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
@@ -2663,16 +2657,16 @@
         <v>0.2</v>
       </c>
       <c r="N27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="P27">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R27" s="4">
         <v>0.6</v>
@@ -2699,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>8</v>
@@ -2732,16 +2726,16 @@
         <v>0.2</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P28">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="R28" s="4">
         <v>0.6</v>
@@ -2768,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
@@ -2801,16 +2795,16 @@
         <v>0.2</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P29">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q29">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="R29" s="4">
         <v>0.6</v>
@@ -2837,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
@@ -2870,16 +2864,16 @@
         <v>0.2</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P30">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q30">
-        <v>5.4</v>
+        <v>13.6</v>
       </c>
       <c r="R30" s="4">
         <v>0.6</v>
@@ -2906,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
@@ -2915,13 +2909,13 @@
         <v>0.5</v>
       </c>
       <c r="F31" s="4">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="G31" s="4">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="H31" s="4">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2930,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="6">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="L31" s="6">
         <v>1</v>
@@ -2942,16 +2936,16 @@
         <v>2</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P31">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q31">
-        <v>13.6</v>
+        <v>1.9</v>
       </c>
       <c r="R31" s="4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="S31" s="4">
         <v>0</v>
@@ -2965,179 +2959,189 @@
       <c r="V31" s="5">
         <v>1.4</v>
       </c>
+      <c r="W31" t="s">
+        <v>28</v>
+      </c>
       <c r="X31" s="7"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="15">
-        <v>0.5</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F32" s="4">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="G32" s="4">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="H32" s="4">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="L32" s="6">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.2</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>109</v>
+        <v>24</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P32">
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q32">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="R32" s="4">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="S32" s="4">
         <v>0</v>
       </c>
-      <c r="T32" s="6">
-        <v>1</v>
+      <c r="T32" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="U32" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" s="5">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>28</v>
-      </c>
-      <c r="X32" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="15">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="F33" s="4">
-        <v>0.72</v>
+        <v>1.75</v>
       </c>
       <c r="G33" s="4">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="H33" s="4">
-        <v>0.36</v>
+        <v>1.5</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="L33" s="6">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.2</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>109</v>
+        <v>24</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P33">
-        <v>0.01</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R33" s="4">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="S33" s="4">
         <v>0</v>
       </c>
-      <c r="T33" s="6">
-        <v>1</v>
+      <c r="T33" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="U33" s="5">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="V33" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X33" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>66</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="15">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F34" s="4">
-        <v>1.4</v>
+        <v>0.36</v>
       </c>
       <c r="G34" s="4">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J34">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>29</v>
@@ -3158,10 +3162,10 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34" s="4">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="S34" s="4">
         <v>0</v>
@@ -3176,39 +3180,39 @@
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="15">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F35" s="4">
-        <v>1.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G35" s="4">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="I35">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J35">
         <v>24</v>
@@ -3229,16 +3233,16 @@
         <v>29</v>
       </c>
       <c r="P35">
-        <v>2.5000000000000001E-3</v>
+        <v>0.25</v>
       </c>
       <c r="Q35">
         <v>1</v>
       </c>
       <c r="R35" s="4">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="S35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>29</v>
@@ -3250,42 +3254,40 @@
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>68</v>
-      </c>
-      <c r="X35" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="X35" s="7"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>1.75</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="15">
-        <v>2.7E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F36" s="4">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I36">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J36">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>29</v>
@@ -3303,16 +3305,16 @@
         <v>29</v>
       </c>
       <c r="P36">
-        <v>2.5000000000000001E-3</v>
+        <v>0.25</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R36" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="6" t="s">
         <v>29</v>
@@ -3324,42 +3326,40 @@
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>68</v>
-      </c>
-      <c r="X36" s="7" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="X36" s="7"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="15">
-        <v>3.1E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F37" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
       <c r="I37">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J37">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>29</v>
@@ -3380,13 +3380,13 @@
         <v>0.25</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R37" s="4">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="S37" s="4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="T37" s="6" t="s">
         <v>29</v>
@@ -3398,40 +3398,40 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X37" s="7"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="15">
-        <v>3.5999999999999997E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F38" s="4">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
       <c r="G38" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="4">
         <v>0.22</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J38">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>29</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T38" s="6" t="s">
         <v>29</v>
@@ -3470,40 +3470,42 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>91</v>
-      </c>
-      <c r="X38" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="15">
-        <v>2.1000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F39" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J39">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>29</v>
@@ -3524,13 +3526,13 @@
         <v>0.25</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R39" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="T39" s="6" t="s">
         <v>29</v>
@@ -3542,182 +3544,180 @@
         <v>1</v>
       </c>
       <c r="W39" t="s">
+        <v>66</v>
+      </c>
+      <c r="X39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="X39" s="7"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>7.6</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="M40">
+        <v>0.2</v>
+      </c>
+      <c r="N40">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>2.65</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="15">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="I40">
-        <v>20</v>
-      </c>
-      <c r="J40">
-        <v>20</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>29</v>
+      <c r="O40" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="P40">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S40" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="T40" s="6" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6">
+        <v>1</v>
       </c>
       <c r="U40" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V40" s="5">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W40" t="s">
-        <v>68</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="X40" s="7"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>4.8</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M41">
+        <v>0.2</v>
+      </c>
+      <c r="N41">
         <v>2</v>
       </c>
-      <c r="C41">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="15">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="I41">
-        <v>24</v>
-      </c>
-      <c r="J41">
-        <v>12</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>29</v>
+      <c r="O41" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="P41">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="S41" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="T41" s="6" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6">
+        <v>0.8</v>
       </c>
       <c r="U41" s="5">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V41" s="5">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W41" t="s">
-        <v>68</v>
-      </c>
-      <c r="X41" s="7" t="s">
-        <v>95</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="X41" s="7"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>7.6</v>
+        <v>14.8</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F42" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G42" s="4">
-        <v>0.7</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H42" s="4">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -3726,70 +3726,72 @@
         <v>0</v>
       </c>
       <c r="K42" s="6">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q42">
+        <v>20</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="U42" s="5">
         <v>1.6</v>
       </c>
-      <c r="M42">
-        <v>0.2</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P42">
-        <v>0.01</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4">
-        <v>4</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6">
-        <v>1</v>
-      </c>
-      <c r="U42" s="5">
-        <v>3</v>
-      </c>
       <c r="V42" s="5">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="W42" t="s">
-        <v>28</v>
-      </c>
-      <c r="X42" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="15">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F43" s="4">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="G43" s="4">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="H43" s="4">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -3798,147 +3800,147 @@
         <v>0</v>
       </c>
       <c r="K43" s="6">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="L43" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N43">
         <v>2</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P43">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R43" s="4">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="S43" s="4">
         <v>0</v>
       </c>
       <c r="T43" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U43" s="5">
-        <v>2.2000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="V43" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W43" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="W43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="X43" s="7"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>14.8</v>
+        <v>25</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="15">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F44" s="4">
-        <v>0.92500000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="G44" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="H44" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44">
+        <v>0.02</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+      <c r="R44" s="4">
         <v>0.6</v>
       </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>1</v>
-      </c>
-      <c r="L44" s="6">
-        <v>1</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q44">
-        <v>20</v>
-      </c>
-      <c r="R44" s="4">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="S44" s="4">
         <v>0</v>
       </c>
       <c r="T44" s="6">
+        <v>1</v>
+      </c>
+      <c r="U44" s="5">
         <v>0.9</v>
       </c>
-      <c r="U44" s="5">
-        <v>1.6</v>
-      </c>
       <c r="V44" s="5">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="W44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F45" s="4">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="G45" s="4">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="H45" s="4">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3947,154 +3949,156 @@
         <v>0.75</v>
       </c>
       <c r="L45" s="6">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0.1</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>109</v>
+        <v>0.8</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P45">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q45">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="S45" s="4">
         <v>0</v>
       </c>
       <c r="T45" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U45" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V45" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X45" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="W45" t="s">
+        <v>101</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>2.4</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F46" s="4">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="G46" s="4">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="H46" s="4">
-        <v>0.36</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K46" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46">
+        <v>0.25</v>
+      </c>
+      <c r="Q46">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="4">
         <v>0.75</v>
       </c>
-      <c r="L46" s="6">
-        <v>1</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46">
-        <v>0.02</v>
-      </c>
-      <c r="Q46">
-        <v>50</v>
-      </c>
-      <c r="R46" s="4">
-        <v>0.6</v>
-      </c>
       <c r="S46" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="6">
         <v>1</v>
       </c>
       <c r="U46" s="5">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="V46" s="5">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="W46" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>9.5</v>
+        <v>4.8</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="15">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="F47" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="L47" s="6">
         <v>0.95</v>
       </c>
-      <c r="G47" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I47">
-        <v>6</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0.8</v>
-      </c>
       <c r="M47" s="6" t="s">
         <v>29</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>29</v>
       </c>
       <c r="P47">
-        <v>5.0000000000000001E-3</v>
+        <v>0.125</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -4114,170 +4118,168 @@
         <v>0.9</v>
       </c>
       <c r="S47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U47" s="5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V47" s="5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W47" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="15">
-        <v>0.42499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F48" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H48" s="4">
         <v>0.6</v>
       </c>
-      <c r="G48" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0.47499999999999998</v>
-      </c>
       <c r="I48">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K48" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L48" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0.5</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="P48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R48" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="6">
         <v>1</v>
       </c>
       <c r="U48" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V48" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W48" t="s">
-        <v>114</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="X48" s="7"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>4.8</v>
+        <v>2.85</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="15">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F49" s="4">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="G49" s="4">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="H49" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49">
         <v>4</v>
       </c>
-      <c r="K49" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>29</v>
+      <c r="N49">
+        <v>45</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="P49">
-        <v>0.125</v>
+        <v>0.01</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R49" s="4">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="S49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="6">
         <v>1</v>
       </c>
       <c r="U49" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V49" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W49" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4288,79 +4290,81 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>1.9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="15">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F50" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0.2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P50">
+        <v>0.01</v>
+      </c>
+      <c r="Q50">
+        <v>26</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6">
+        <v>1</v>
+      </c>
+      <c r="U50" s="5">
         <v>0.9</v>
       </c>
-      <c r="G50" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>1</v>
-      </c>
-      <c r="L50" s="6">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>0.5</v>
-      </c>
-      <c r="N50">
-        <v>8</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>2</v>
-      </c>
-      <c r="R50" s="4">
-        <v>1</v>
-      </c>
-      <c r="S50" s="4">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6">
-        <v>1</v>
-      </c>
-      <c r="U50" s="5">
-        <v>1</v>
-      </c>
       <c r="V50" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W50" t="s">
-        <v>28</v>
-      </c>
-      <c r="X50" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>2.85</v>
+        <v>1</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>8</v>
@@ -4369,13 +4373,13 @@
         <v>0.5</v>
       </c>
       <c r="F51" s="4">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="G51" s="4">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="H51" s="4">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -4384,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="K51" s="6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L51" s="6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="N51">
         <v>45</v>
@@ -4399,13 +4403,13 @@
         <v>25</v>
       </c>
       <c r="P51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R51" s="4">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="S51" s="4">
         <v>0</v>
@@ -4419,37 +4423,37 @@
       <c r="V51" s="5">
         <v>1</v>
       </c>
-      <c r="W51" t="s">
-        <v>107</v>
-      </c>
-      <c r="X51" s="7" t="s">
-        <v>106</v>
+      <c r="W51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X51" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E52" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.15</v>
       </c>
       <c r="F52" s="4">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="G52" s="4">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="H52" s="4">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -4458,28 +4462,28 @@
         <v>0</v>
       </c>
       <c r="K52" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M52">
-        <v>0.2</v>
-      </c>
-      <c r="N52">
-        <v>2</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>109</v>
+      <c r="M52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P52">
         <v>0.01</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R52" s="4">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="S52" s="4">
         <v>0</v>
@@ -4488,239 +4492,133 @@
         <v>1</v>
       </c>
       <c r="U52" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="V52" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>116</v>
-      </c>
-      <c r="X52" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="X52" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>1.94</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
+        <v>1.25</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="K53" s="6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="L53" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="M53">
-        <v>0.5</v>
-      </c>
-      <c r="N53">
-        <v>45</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q53">
         <v>1</v>
       </c>
       <c r="R53" s="4">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="S53" s="4">
         <v>0</v>
       </c>
       <c r="T53" s="6">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="U53" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V53" s="5">
-        <v>1</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X53" s="14" t="s">
-        <v>29</v>
+        <v>1.3</v>
+      </c>
+      <c r="W53" t="s">
+        <v>105</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>1</v>
-      </c>
-      <c r="L54" s="6">
-        <v>1</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54">
-        <v>0.01</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4">
-        <v>1</v>
-      </c>
-      <c r="S54" s="4">
-        <v>0</v>
-      </c>
-      <c r="T54" s="6">
-        <v>1</v>
-      </c>
-      <c r="U54" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="V54" s="5">
-        <v>1</v>
-      </c>
-      <c r="W54" t="s">
-        <v>107</v>
-      </c>
-      <c r="X54" s="17" t="s">
-        <v>112</v>
-      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="O54" s="1"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="X54" s="7"/>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>1.94</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="L55" s="6">
-        <v>1</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P55">
-        <v>0.01</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="R55" s="4">
-        <v>2</v>
-      </c>
-      <c r="S55" s="4">
-        <v>0</v>
-      </c>
-      <c r="T55" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="U55" s="5">
-        <v>6</v>
-      </c>
-      <c r="V55" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="W55" t="s">
-        <v>107</v>
-      </c>
-      <c r="X55" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="9"/>
     </row>
     <row r="56" spans="1:24">
       <c r="D56" s="7"/>
@@ -4739,30 +4637,20 @@
       <c r="X56" s="7"/>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="9"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="O57" s="1"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="X57" s="7"/>
     </row>
     <row r="58" spans="1:24">
       <c r="D58" s="7"/>
@@ -4877,62 +4765,30 @@
       <c r="X64" s="7"/>
     </row>
     <row r="65" spans="1:24">
-      <c r="D65" s="7"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="O65" s="1"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="X65" s="7"/>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="D66" s="7"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="O66" s="1"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="X66" s="7"/>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4966,7 +4822,7 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4975,10 +4831,10 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -4986,16 +4842,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -5006,16 +4862,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -5026,16 +4882,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>101</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -5046,16 +4902,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="121">
   <si>
     <t>Material</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Painite</t>
   </si>
   <si>
-    <t>Opal</t>
-  </si>
-  <si>
     <t>Topaz</t>
   </si>
   <si>
@@ -376,6 +373,12 @@
   </si>
   <si>
     <t>9 Granite Blocks, 1 Epoxy (Makes 10)</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Exotic Trader</t>
   </si>
 </sst>
 </file>
@@ -401,12 +404,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -421,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -459,6 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +532,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:X65" totalsRowShown="0">
-  <autoFilter ref="A3:X65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:X64" totalsRowShown="0">
+  <autoFilter ref="A3:X64">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="5"/>
@@ -873,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X65"/>
+  <dimension ref="A2:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -965,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R3" t="s">
         <v>22</v>
@@ -1361,7 +1371,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -1435,7 +1445,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1551,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P11">
         <v>0.01</v>
@@ -1625,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P12">
         <v>0.01</v>
@@ -1694,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P13">
         <v>0.01</v>
@@ -1763,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P14">
         <v>0.02</v>
@@ -1790,7 +1800,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1832,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P15">
         <v>0.01</v>
@@ -1859,7 +1869,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1901,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P16">
         <v>0.03</v>
@@ -1970,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P17">
         <v>5.0000000000000001E-3</v>
@@ -2039,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P18">
         <v>5.0000000000000001E-3</v>
@@ -2066,13 +2076,13 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>8</v>
@@ -2108,13 +2118,13 @@
         <v>2</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P19">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="R19" s="4">
         <v>0.6</v>
@@ -2141,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -2174,16 +2184,16 @@
         <v>0.2</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P20">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q20">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="R20" s="4">
         <v>0.6</v>
@@ -2203,20 +2213,20 @@
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" t="s">
+      <c r="A21" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F21" s="4">
         <v>0.72</v>
@@ -2239,20 +2249,20 @@
       <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="M21">
-        <v>0.2</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>106</v>
+      <c r="M21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="P21">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R21" s="4">
         <v>0.6</v>
@@ -2268,6 +2278,9 @@
       </c>
       <c r="V21" s="5">
         <v>1.4</v>
+      </c>
+      <c r="W21" t="s">
+        <v>120</v>
       </c>
       <c r="X21" s="7"/>
     </row>
@@ -2279,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>5.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>8</v>
@@ -2312,16 +2325,16 @@
         <v>0.2</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P22">
         <v>0.01</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R22" s="4">
         <v>0.6</v>
@@ -2348,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>8</v>
@@ -2381,16 +2394,16 @@
         <v>0.2</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P23">
-        <v>0.01</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q23">
-        <v>4.5999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="R23" s="4">
         <v>0.6</v>
@@ -2417,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>8</v>
@@ -2450,16 +2463,16 @@
         <v>0.2</v>
       </c>
       <c r="N24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="P24">
         <v>0.04</v>
       </c>
       <c r="Q24">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="R24" s="4">
         <v>0.6</v>
@@ -2486,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>8</v>
@@ -2525,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="P25">
-        <v>0.05</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" s="4">
         <v>0.6</v>
@@ -2555,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
@@ -2588,16 +2601,16 @@
         <v>0.2</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="P26">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R26" s="4">
         <v>0.6</v>
@@ -2624,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
@@ -2657,16 +2670,16 @@
         <v>0.2</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="R27" s="4">
         <v>0.6</v>
@@ -2693,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>8</v>
@@ -2726,16 +2739,16 @@
         <v>0.2</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P28">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q28">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="R28" s="4">
         <v>0.6</v>
@@ -2762,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
@@ -2795,16 +2808,16 @@
         <v>0.2</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P29">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q29">
-        <v>5.4</v>
+        <v>13.6</v>
       </c>
       <c r="R29" s="4">
         <v>0.6</v>
@@ -2831,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
@@ -2840,13 +2853,13 @@
         <v>0.5</v>
       </c>
       <c r="F30" s="4">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="G30" s="4">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="H30" s="4">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2855,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="6">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="L30" s="6">
         <v>1</v>
@@ -2864,19 +2877,19 @@
         <v>0.2</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P30">
-        <v>0.01</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q30">
-        <v>13.6</v>
+        <v>1.9</v>
       </c>
       <c r="R30" s="4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="S30" s="4">
         <v>0</v>
@@ -2890,104 +2903,109 @@
       <c r="V30" s="5">
         <v>1.4</v>
       </c>
+      <c r="W30" t="s">
+        <v>28</v>
+      </c>
       <c r="X30" s="7"/>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="15">
-        <v>0.5</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F31" s="4">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="G31" s="4">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="H31" s="4">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="L31" s="6">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.2</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>107</v>
+        <v>24</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P31">
-        <v>0.05</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q31">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="R31" s="4">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="S31" s="4">
         <v>0</v>
       </c>
-      <c r="T31" s="6">
-        <v>1</v>
+      <c r="T31" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="U31" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" s="5">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>28</v>
-      </c>
-      <c r="X31" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="15">
-        <v>2.5999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F32" s="4">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="G32" s="4">
         <v>0.24</v>
       </c>
       <c r="H32" s="4">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="I32">
         <v>24</v>
@@ -3017,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="R32" s="4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S32" s="4">
         <v>0</v>
@@ -3032,42 +3050,42 @@
         <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="15">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F33" s="4">
-        <v>1.75</v>
+        <v>0.36</v>
       </c>
       <c r="G33" s="4">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J33">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>29</v>
@@ -3088,10 +3106,10 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" s="4">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="S33" s="4">
         <v>0</v>
@@ -3106,42 +3124,42 @@
         <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X33" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="15">
-        <v>2.7E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F34" s="4">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="I34">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J34">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>29</v>
@@ -3159,16 +3177,16 @@
         <v>29</v>
       </c>
       <c r="P34">
-        <v>2.5000000000000001E-3</v>
+        <v>0.25</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>29</v>
@@ -3180,42 +3198,40 @@
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>66</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="X34" s="7"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="15">
-        <v>3.1E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F35" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="I35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>29</v>
@@ -3239,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="R35" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S35" s="4">
         <v>1</v>
@@ -3260,34 +3276,34 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="15">
-        <v>3.5999999999999997E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F36" s="4">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>29</v>
@@ -3308,13 +3324,13 @@
         <v>0.25</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R36" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S36" s="4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="T36" s="6" t="s">
         <v>29</v>
@@ -3326,40 +3342,40 @@
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X36" s="7"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>2.65</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="15">
-        <v>2.1000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F37" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H37" s="4">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>29</v>
@@ -3380,13 +3396,13 @@
         <v>0.25</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R37" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S37" s="4">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="T37" s="6" t="s">
         <v>29</v>
@@ -3398,19 +3414,21 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>91</v>
-      </c>
-      <c r="X37" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>2.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>8</v>
@@ -3422,16 +3440,16 @@
         <v>0.4</v>
       </c>
       <c r="G38" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I38">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J38">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>29</v>
@@ -3452,7 +3470,7 @@
         <v>0.25</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" s="4">
         <v>1</v>
@@ -3470,110 +3488,108 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X38" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>7.6</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="L39" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="M39">
+        <v>0.2</v>
+      </c>
+      <c r="N39">
         <v>2</v>
       </c>
-      <c r="C39">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="15">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="I39">
-        <v>24</v>
-      </c>
-      <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>29</v>
+      <c r="O39" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="P39">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S39" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6">
+        <v>1</v>
       </c>
       <c r="U39" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V39" s="5">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W39" t="s">
-        <v>66</v>
-      </c>
-      <c r="X39" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="X39" s="7"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="4">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -3585,7 +3601,7 @@
         <v>1.05</v>
       </c>
       <c r="L40" s="6">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="M40">
         <v>0.2</v>
@@ -3594,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P40">
         <v>0.01</v>
@@ -3603,16 +3619,16 @@
         <v>1</v>
       </c>
       <c r="R40" s="4">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="S40" s="4">
         <v>0</v>
       </c>
       <c r="T40" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U40" s="5">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V40" s="5">
         <v>2.2000000000000002</v>
@@ -3624,13 +3640,13 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>4.8</v>
+        <v>14.8</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>8</v>
@@ -3639,10 +3655,10 @@
         <v>0.5</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G41" s="4">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H41" s="4">
         <v>0.6</v>
@@ -3654,119 +3670,119 @@
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L41" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="M41">
-        <v>0.2</v>
-      </c>
-      <c r="N41">
-        <v>2</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P41">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R41" s="4">
-        <v>2.1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="S41" s="4">
         <v>0</v>
       </c>
       <c r="T41" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="U41" s="5">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="V41" s="5">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="W41" t="s">
-        <v>28</v>
-      </c>
-      <c r="X41" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="15">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F42" s="4">
-        <v>0.92500000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="G42" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="H42" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0.1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P42">
+        <v>1E-3</v>
+      </c>
+      <c r="Q42">
+        <v>30</v>
+      </c>
+      <c r="R42" s="4">
         <v>0.6</v>
       </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>1</v>
-      </c>
-      <c r="L42" s="6">
-        <v>1</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q42">
-        <v>20</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="S42" s="4">
         <v>0</v>
       </c>
       <c r="T42" s="6">
+        <v>1</v>
+      </c>
+      <c r="U42" s="5">
         <v>0.9</v>
       </c>
-      <c r="U42" s="5">
-        <v>1.6</v>
-      </c>
       <c r="V42" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="W42" t="s">
-        <v>105</v>
-      </c>
-      <c r="X42" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X42" s="7"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
@@ -3776,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>7</v>
@@ -3805,20 +3821,20 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43">
-        <v>0.1</v>
-      </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>107</v>
+      <c r="M43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P43">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" s="4">
         <v>0.6</v>
@@ -3835,38 +3851,40 @@
       <c r="V43" s="5">
         <v>0.9</v>
       </c>
-      <c r="W43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X43" s="7"/>
+      <c r="W43" t="s">
+        <v>104</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>9.5</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F44" s="4">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="G44" s="4">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="H44" s="4">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3875,7 +3893,7 @@
         <v>0.75</v>
       </c>
       <c r="L44" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>29</v>
@@ -3887,105 +3905,105 @@
         <v>29</v>
       </c>
       <c r="P44">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q44">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="S44" s="4">
         <v>0</v>
       </c>
       <c r="T44" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U44" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V44" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="15">
-        <v>0.1</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F45" s="4">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="G45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45" s="6">
         <v>0.3</v>
       </c>
-      <c r="H45" s="4">
+      <c r="L45" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45">
+        <v>0.25</v>
+      </c>
+      <c r="Q45">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="4">
         <v>0.75</v>
       </c>
-      <c r="I45">
-        <v>6</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0.9</v>
-      </c>
       <c r="S45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U45" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V45" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="W45" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="X45" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3996,22 +4014,22 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="15">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="F46" s="4">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G46" s="4">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H46" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I46">
         <v>8</v>
@@ -4020,10 +4038,10 @@
         <v>4</v>
       </c>
       <c r="K46" s="6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="L46" s="6">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>29</v>
@@ -4035,13 +4053,13 @@
         <v>29</v>
       </c>
       <c r="P46">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R46" s="4">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="S46" s="4">
         <v>1</v>
@@ -4050,13 +4068,13 @@
         <v>1</v>
       </c>
       <c r="U46" s="5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V46" s="5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X46" s="7" t="s">
         <v>96</v>
@@ -4064,77 +4082,75 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G47" s="4">
         <v>0.45</v>
       </c>
-      <c r="F47" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.75</v>
-      </c>
       <c r="H47" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K47" s="6">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="L47" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0.5</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="P47">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="6">
         <v>1</v>
       </c>
       <c r="U47" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V47" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W47" t="s">
-        <v>112</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="X47" s="7"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
@@ -4144,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>8</v>
@@ -4153,13 +4169,13 @@
         <v>0.5</v>
       </c>
       <c r="F48" s="4">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G48" s="4">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H48" s="4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -4174,22 +4190,22 @@
         <v>1</v>
       </c>
       <c r="M48">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="N48">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R48" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S48" s="4">
         <v>0</v>
@@ -4204,9 +4220,11 @@
         <v>1</v>
       </c>
       <c r="W48" t="s">
-        <v>28</v>
-      </c>
-      <c r="X48" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
@@ -4216,22 +4234,22 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2.85</v>
+        <v>11</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="15">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F49" s="4">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="G49" s="4">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="H49" s="4">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -4240,28 +4258,28 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L49" s="6">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="N49">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="P49">
         <v>0.01</v>
       </c>
       <c r="Q49">
-        <v>1.5</v>
+        <v>26</v>
       </c>
       <c r="R49" s="4">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="S49" s="4">
         <v>0</v>
@@ -4270,33 +4288,33 @@
         <v>1</v>
       </c>
       <c r="U49" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V49" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W49" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="4">
         <v>0.72</v>
@@ -4314,28 +4332,28 @@
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L50" s="6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M50">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="P50">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R50" s="4">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="S50" s="4">
         <v>0</v>
@@ -4344,16 +4362,16 @@
         <v>1</v>
       </c>
       <c r="U50" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V50" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W50" t="s">
-        <v>114</v>
-      </c>
-      <c r="X50" s="7" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X50" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4364,22 +4382,22 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="15">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="F51" s="4">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="G51" s="4">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="H51" s="4">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -4388,28 +4406,28 @@
         <v>0</v>
       </c>
       <c r="K51" s="6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L51" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="M51">
-        <v>0.5</v>
-      </c>
-      <c r="N51">
-        <v>45</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S51" s="4">
         <v>0</v>
@@ -4418,51 +4436,51 @@
         <v>1</v>
       </c>
       <c r="U51" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V51" s="5">
         <v>1</v>
       </c>
-      <c r="W51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X51" s="14" t="s">
-        <v>29</v>
+      <c r="W51" t="s">
+        <v>104</v>
+      </c>
+      <c r="X51" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2.2000000000000002</v>
+        <v>1.94</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H52" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="6">
         <v>0.6</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>1</v>
       </c>
       <c r="L52" s="6">
         <v>1</v>
@@ -4483,142 +4501,84 @@
         <v>1</v>
       </c>
       <c r="R52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="4">
         <v>0</v>
       </c>
       <c r="T52" s="6">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="U52" s="5">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="V52" s="5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="s">
-        <v>105</v>
-      </c>
-      <c r="X52" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>1.94</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="L53" s="6">
-        <v>1</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P53">
-        <v>0.01</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4">
-        <v>2</v>
-      </c>
-      <c r="S53" s="4">
-        <v>0</v>
-      </c>
-      <c r="T53" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="U53" s="5">
-        <v>6</v>
-      </c>
-      <c r="V53" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="W53" t="s">
-        <v>105</v>
-      </c>
-      <c r="X53" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="O53" s="1"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="X53" s="7"/>
     </row>
     <row r="54" spans="1:24">
-      <c r="D54" s="7"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="O54" s="1"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="X54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="9"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="O55" s="1"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="X55" s="7"/>
     </row>
     <row r="56" spans="1:24">
       <c r="D56" s="7"/>
@@ -4749,46 +4709,30 @@
       <c r="X63" s="7"/>
     </row>
     <row r="64" spans="1:24">
-      <c r="D64" s="7"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="O64" s="1"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="X64" s="7"/>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4822,7 +4766,7 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4831,10 +4775,10 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -4842,16 +4786,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -4862,16 +4806,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -4882,16 +4826,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -4902,16 +4846,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -404,18 +404,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -468,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="134">
   <si>
     <t>Material</t>
   </si>
@@ -297,9 +297,6 @@
     <t>1x Neutroamine, 1x Chemfuel (Makes 2)</t>
   </si>
   <si>
-    <t>2x Cotton, 1x Chemfuel (Makes 2)</t>
-  </si>
-  <si>
     <t>8x Cloth, 1x Neutroamine, 1x Sulfuric Acid (Makes 4)</t>
   </si>
   <si>
@@ -379,6 +376,48 @@
   </si>
   <si>
     <t>Exotic Trader</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>196, 197, 208</t>
+  </si>
+  <si>
+    <t>191, 189, 180</t>
+  </si>
+  <si>
+    <t>208, 213, 219</t>
+  </si>
+  <si>
+    <t>249, 243, 209</t>
+  </si>
+  <si>
+    <t>193, 193, 187</t>
+  </si>
+  <si>
+    <t>135, 134, 129</t>
+  </si>
+  <si>
+    <t>206, 180, 129</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>Faux Leather</t>
+  </si>
+  <si>
+    <t>2x Cloth, 1x Chemfuel (Makes 2)</t>
+  </si>
+  <si>
+    <t>2x Cloth, 2x Chemfuel (Makes 3)</t>
   </si>
 </sst>
 </file>
@@ -424,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -459,20 +498,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -526,8 +571,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:X64" totalsRowShown="0">
-  <autoFilter ref="A3:X64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:Y65" totalsRowShown="0">
+  <autoFilter ref="A3:Y65">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="5"/>
@@ -542,32 +587,34 @@
     <filterColumn colId="21"/>
     <filterColumn colId="22"/>
     <filterColumn colId="23"/>
+    <filterColumn colId="24"/>
   </autoFilter>
-  <tableColumns count="24">
+  <tableColumns count="25">
     <tableColumn id="1" name="Material"/>
     <tableColumn id="13" name="Vol"/>
     <tableColumn id="2" name="Value"/>
-    <tableColumn id="18" name="Volume" dataDxfId="15"/>
-    <tableColumn id="3" name="Mass" dataDxfId="14"/>
-    <tableColumn id="37" name="Ar-Sharp" dataDxfId="13"/>
-    <tableColumn id="38" name="Ar-Blunt" dataDxfId="12"/>
-    <tableColumn id="39" name="Ar-Heat" dataDxfId="11"/>
+    <tableColumn id="18" name="Volume" dataDxfId="16"/>
+    <tableColumn id="3" name="Mass" dataDxfId="15"/>
+    <tableColumn id="37" name="Ar-Sharp" dataDxfId="14"/>
+    <tableColumn id="38" name="Ar-Blunt" dataDxfId="13"/>
+    <tableColumn id="39" name="Ar-Heat" dataDxfId="12"/>
     <tableColumn id="40" name="InsulCold"/>
     <tableColumn id="35" name="InsulHeat"/>
-    <tableColumn id="36" name="SharpDam" dataDxfId="10"/>
-    <tableColumn id="34" name="BluntDam" dataDxfId="9"/>
+    <tableColumn id="36" name="SharpDam" dataDxfId="11"/>
+    <tableColumn id="34" name="BluntDam" dataDxfId="10"/>
     <tableColumn id="7" name="deepChance"/>
     <tableColumn id="8" name="deepCountPP"/>
-    <tableColumn id="9" name="deepLumpSize" dataDxfId="8"/>
+    <tableColumn id="9" name="deepLumpSize" dataDxfId="9"/>
     <tableColumn id="25" name="Commonality"/>
     <tableColumn id="5" name="Beauty Stat Offset"/>
-    <tableColumn id="6" name="HP" dataDxfId="7"/>
-    <tableColumn id="11" name="Flammability" dataDxfId="6"/>
-    <tableColumn id="10" name="MWCooldown" dataDxfId="5"/>
-    <tableColumn id="43" name="ToBuild" dataDxfId="4"/>
-    <tableColumn id="44" name="ToMake" dataDxfId="3"/>
+    <tableColumn id="6" name="HP" dataDxfId="8"/>
+    <tableColumn id="11" name="Flammability" dataDxfId="7"/>
+    <tableColumn id="10" name="MWCooldown" dataDxfId="6"/>
+    <tableColumn id="43" name="ToBuild" dataDxfId="5"/>
+    <tableColumn id="44" name="ToMake" dataDxfId="4"/>
     <tableColumn id="42" name="Made At:"/>
-    <tableColumn id="41" name="Receipe" dataDxfId="2"/>
+    <tableColumn id="41" name="Receipe" dataDxfId="3"/>
+    <tableColumn id="4" name="Column1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -877,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X64"/>
+  <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,18 +955,19 @@
     <col min="22" max="22" width="10" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="51.7109375" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1017,7 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R3" t="s">
         <v>22</v>
@@ -992,8 +1040,11 @@
       <c r="X3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1066,8 +1117,9 @@
       <c r="X4" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1140,8 +1192,9 @@
       <c r="X5" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1214,8 +1267,9 @@
       <c r="X6" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1288,8 +1342,9 @@
       <c r="X7" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1362,8 +1417,9 @@
       <c r="X8" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1436,10 +1492,11 @@
       <c r="X9" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1510,8 +1567,9 @@
       <c r="X10" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1555,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P11">
         <v>0.01</v>
@@ -1584,8 +1642,9 @@
       <c r="X11" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1629,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P12">
         <v>0.01</v>
@@ -1653,8 +1712,9 @@
         <v>1.4</v>
       </c>
       <c r="X12" s="7"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1698,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P13">
         <v>0.01</v>
@@ -1722,8 +1782,9 @@
         <v>1.4</v>
       </c>
       <c r="X13" s="7"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1767,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P14">
         <v>0.02</v>
@@ -1791,8 +1852,9 @@
         <v>1.4</v>
       </c>
       <c r="X14" s="7"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1836,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P15">
         <v>0.01</v>
@@ -1860,8 +1922,9 @@
         <v>1.4</v>
       </c>
       <c r="X15" s="7"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1905,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P16">
         <v>0.03</v>
@@ -1929,8 +1992,9 @@
         <v>1.4</v>
       </c>
       <c r="X16" s="7"/>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1974,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P17">
         <v>5.0000000000000001E-3</v>
@@ -1998,8 +2062,9 @@
         <v>1.4</v>
       </c>
       <c r="X17" s="7"/>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2043,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P18">
         <v>5.0000000000000001E-3</v>
@@ -2067,8 +2132,9 @@
         <v>1.4</v>
       </c>
       <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2112,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P19">
         <v>0.02</v>
@@ -2136,8 +2202,9 @@
         <v>1.4</v>
       </c>
       <c r="X19" s="7"/>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2181,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P20">
         <v>0.03</v>
@@ -2205,9 +2272,10 @@
         <v>1.4</v>
       </c>
       <c r="X20" s="7"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="19" t="s">
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B21">
@@ -2274,11 +2342,12 @@
         <v>1.4</v>
       </c>
       <c r="W21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X21" s="7"/>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2322,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P22">
         <v>0.01</v>
@@ -2346,8 +2415,9 @@
         <v>1.4</v>
       </c>
       <c r="X22" s="7"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2391,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P23">
         <v>3.5000000000000003E-2</v>
@@ -2415,8 +2485,9 @@
         <v>1.4</v>
       </c>
       <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2484,8 +2555,9 @@
         <v>1.4</v>
       </c>
       <c r="X24" s="7"/>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2553,8 +2625,9 @@
         <v>1.4</v>
       </c>
       <c r="X25" s="7"/>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2598,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P26">
         <v>0.01</v>
@@ -2622,8 +2695,9 @@
         <v>1.4</v>
       </c>
       <c r="X26" s="7"/>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2667,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P27">
         <v>0.02</v>
@@ -2691,8 +2765,9 @@
         <v>1.4</v>
       </c>
       <c r="X27" s="7"/>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" s="7"/>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2736,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P28">
         <v>0.03</v>
@@ -2760,8 +2835,9 @@
         <v>1.4</v>
       </c>
       <c r="X28" s="7"/>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" s="7"/>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2805,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P29">
         <v>0.01</v>
@@ -2829,8 +2905,9 @@
         <v>1.4</v>
       </c>
       <c r="X29" s="7"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" s="7"/>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2874,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P30">
         <v>3.5000000000000003E-2</v>
@@ -2901,8 +2978,9 @@
         <v>28</v>
       </c>
       <c r="X30" s="7"/>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" s="7"/>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2973,10 +3051,11 @@
         <v>65</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>93</v>
+      </c>
+      <c r="Y31" s="7"/>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3047,10 +3126,11 @@
         <v>65</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>98</v>
+      </c>
+      <c r="Y32" s="7"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -3123,8 +3203,9 @@
       <c r="X33" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" s="7"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -3195,8 +3276,9 @@
         <v>87</v>
       </c>
       <c r="X34" s="7"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -3267,8 +3349,9 @@
         <v>88</v>
       </c>
       <c r="X35" s="7"/>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -3339,8 +3422,9 @@
         <v>90</v>
       </c>
       <c r="X36" s="7"/>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" s="7"/>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3411,10 +3495,11 @@
         <v>65</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>132</v>
+      </c>
+      <c r="Y37" s="7"/>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -3487,103 +3572,59 @@
       <c r="X38" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" s="7"/>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="1"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="X39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y39" s="7"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
         <v>7.6</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="15">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="D40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>0.7</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>0.65</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>1.05</v>
-      </c>
-      <c r="L39" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="M39">
-        <v>0.2</v>
-      </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P39">
-        <v>0.01</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>4</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0</v>
-      </c>
-      <c r="T39" s="6">
-        <v>1</v>
-      </c>
-      <c r="U39" s="5">
-        <v>3</v>
-      </c>
-      <c r="V39" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W39" t="s">
-        <v>28</v>
-      </c>
-      <c r="X39" s="7"/>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>4.8</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.6</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -3595,16 +3636,16 @@
         <v>1.05</v>
       </c>
       <c r="L40" s="6">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="M40">
         <v>0.2</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="P40">
         <v>0.01</v>
@@ -3613,16 +3654,16 @@
         <v>1</v>
       </c>
       <c r="R40" s="4">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="S40" s="4">
         <v>0</v>
       </c>
       <c r="T40" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U40" s="5">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="V40" s="5">
         <v>2.2000000000000002</v>
@@ -3631,16 +3672,19 @@
         <v>28</v>
       </c>
       <c r="X40" s="7"/>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>14.8</v>
+        <v>4.8</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>8</v>
@@ -3649,10 +3693,10 @@
         <v>0.5</v>
       </c>
       <c r="F41" s="4">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="4">
         <v>0.6</v>
@@ -3664,129 +3708,135 @@
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="L41" s="6">
-        <v>1</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>29</v>
+        <v>0.8</v>
+      </c>
+      <c r="M41">
+        <v>0.2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="P41">
+        <v>0.01</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U41" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V41" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W41" t="s">
+        <v>28</v>
+      </c>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>14.8</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q41">
+      <c r="Q42">
         <v>20</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R42" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="S41" s="4">
-        <v>0</v>
-      </c>
-      <c r="T41" s="6">
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="6">
         <v>0.9</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U42" s="5">
         <v>1.6</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V42" s="5">
         <v>1.6</v>
       </c>
-      <c r="W41" t="s">
-        <v>104</v>
-      </c>
-      <c r="X41" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" t="s">
+      <c r="W42" t="s">
+        <v>103</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
         <v>15</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="15">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="L42" s="6">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0.1</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P42">
-        <v>1E-3</v>
-      </c>
-      <c r="Q42">
-        <v>30</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6">
-        <v>1</v>
-      </c>
-      <c r="U42" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X42" s="7"/>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>25</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>7</v>
@@ -3815,20 +3865,20 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>29</v>
+      <c r="M43">
+        <v>0.1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="P43">
-        <v>0.02</v>
+        <v>1E-3</v>
       </c>
       <c r="Q43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R43" s="4">
         <v>0.6</v>
@@ -3845,40 +3895,41 @@
       <c r="V43" s="5">
         <v>0.9</v>
       </c>
-      <c r="W43" t="s">
-        <v>104</v>
-      </c>
-      <c r="X43" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="W43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="15">
-        <v>0.1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F44" s="4">
-        <v>0.95</v>
+        <v>0.72</v>
       </c>
       <c r="G44" s="4">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="H44" s="4">
-        <v>0.75</v>
+        <v>0.36</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3887,143 +3938,147 @@
         <v>0.75</v>
       </c>
       <c r="L44" s="6">
+        <v>1</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44">
+        <v>0.02</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+      <c r="T44" s="6">
+        <v>1</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="W44" t="s">
+        <v>103</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>9.5</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="L45" s="6">
         <v>0.8</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44">
+      <c r="M45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4">
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4">
         <v>0.9</v>
       </c>
-      <c r="S44" s="4">
-        <v>0</v>
-      </c>
-      <c r="T44" s="6">
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="6">
         <v>0.8</v>
       </c>
-      <c r="U44" s="5">
-        <v>1</v>
-      </c>
-      <c r="V44" s="5">
-        <v>1</v>
-      </c>
-      <c r="W44" t="s">
-        <v>100</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" t="s">
+      <c r="U45" s="5">
+        <v>1</v>
+      </c>
+      <c r="V45" s="5">
+        <v>1</v>
+      </c>
+      <c r="W45" t="s">
+        <v>99</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y45" s="7"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
         <v>68</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
         <v>2.4</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="15">
+      <c r="D46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="15">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>0.6</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>0.6</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>0.47499999999999998</v>
-      </c>
-      <c r="I45">
-        <v>8</v>
-      </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45">
-        <v>0.25</v>
-      </c>
-      <c r="Q45">
-        <v>-1</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="S45" s="4">
-        <v>1</v>
-      </c>
-      <c r="T45" s="6">
-        <v>1</v>
-      </c>
-      <c r="U45" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="W45" t="s">
-        <v>111</v>
-      </c>
-      <c r="X45" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>4.8</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0.45</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0.55000000000000004</v>
       </c>
       <c r="I46">
         <v>8</v>
@@ -4032,129 +4087,133 @@
         <v>4</v>
       </c>
       <c r="K46" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46">
+        <v>0.25</v>
+      </c>
+      <c r="Q46">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="S46" s="4">
+        <v>1</v>
+      </c>
+      <c r="T46" s="6">
+        <v>1</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W46" t="s">
+        <v>110</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y46" s="7"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>4.8</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="15">
         <v>0.45</v>
       </c>
-      <c r="L46" s="6">
+      <c r="F47" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="L47" s="6">
         <v>0.95</v>
       </c>
-      <c r="M46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46">
+      <c r="M47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47">
         <v>0.125</v>
       </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4">
         <v>0.9</v>
       </c>
-      <c r="S46" s="4">
-        <v>1</v>
-      </c>
-      <c r="T46" s="6">
-        <v>1</v>
-      </c>
-      <c r="U46" s="5">
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+      <c r="T47" s="6">
+        <v>1</v>
+      </c>
+      <c r="U47" s="5">
         <v>0.6</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V47" s="5">
         <v>0.6</v>
       </c>
-      <c r="W46" t="s">
-        <v>111</v>
-      </c>
-      <c r="X46" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="A47" t="s">
+      <c r="W47" t="s">
+        <v>110</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y47" s="7"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" t="s">
         <v>74</v>
       </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
         <v>1.9</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>1</v>
-      </c>
-      <c r="L47" s="6">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0.5</v>
-      </c>
-      <c r="N47">
-        <v>8</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>2</v>
-      </c>
-      <c r="R47" s="4">
-        <v>1</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0</v>
-      </c>
-      <c r="T47" s="6">
-        <v>1</v>
-      </c>
-      <c r="U47" s="5">
-        <v>1</v>
-      </c>
-      <c r="V47" s="5">
-        <v>1</v>
-      </c>
-      <c r="W47" t="s">
-        <v>28</v>
-      </c>
-      <c r="X47" s="7"/>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>2.85</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>8</v>
@@ -4163,88 +4222,89 @@
         <v>0.5</v>
       </c>
       <c r="F48" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1</v>
+      </c>
+      <c r="L48" s="6">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0.5</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="R48" s="4">
+        <v>1</v>
+      </c>
+      <c r="S48" s="4">
+        <v>0</v>
+      </c>
+      <c r="T48" s="6">
+        <v>1</v>
+      </c>
+      <c r="U48" s="5">
+        <v>1</v>
+      </c>
+      <c r="V48" s="5">
+        <v>1</v>
+      </c>
+      <c r="W48" t="s">
+        <v>28</v>
+      </c>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="19">
+        <v>219226233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2.85</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="4">
         <v>0.96</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G49" s="4">
         <v>0.48</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H49" s="4">
         <v>0.7</v>
       </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>1</v>
-      </c>
-      <c r="L48" s="6">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="N48">
-        <v>45</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48">
-        <v>0.01</v>
-      </c>
-      <c r="Q48">
-        <v>1.5</v>
-      </c>
-      <c r="R48" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="S48" s="4">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6">
-        <v>1</v>
-      </c>
-      <c r="U48" s="5">
-        <v>1</v>
-      </c>
-      <c r="V48" s="5">
-        <v>1</v>
-      </c>
-      <c r="W48" t="s">
-        <v>104</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="15">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0.36</v>
-      </c>
       <c r="I49">
         <v>3</v>
       </c>
@@ -4252,28 +4312,28 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L49" s="6">
         <v>1</v>
       </c>
-      <c r="M49">
-        <v>0.2</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>106</v>
+      <c r="M49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P49">
         <v>0.01</v>
       </c>
       <c r="Q49">
-        <v>26</v>
+        <v>1.5</v>
       </c>
       <c r="R49" s="4">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="S49" s="4">
         <v>0</v>
@@ -4282,33 +4342,36 @@
         <v>1</v>
       </c>
       <c r="U49" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V49" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W49" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>102</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="15">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F50" s="4">
         <v>0.72</v>
@@ -4326,155 +4389,157 @@
         <v>0</v>
       </c>
       <c r="K50" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0.1</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P50">
+        <v>0.01</v>
+      </c>
+      <c r="Q50">
+        <v>26</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6">
+        <v>1</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="W50" t="s">
+        <v>112</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y50" s="7"/>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
         <v>0.75</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L51" s="6">
         <v>0.75</v>
       </c>
-      <c r="M50">
+      <c r="M51">
         <v>0.5</v>
       </c>
-      <c r="N50">
+      <c r="N51">
         <v>45</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50" s="4">
+      <c r="O51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4">
         <v>0.6</v>
       </c>
-      <c r="S50" s="4">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6">
-        <v>1</v>
-      </c>
-      <c r="U50" s="5">
-        <v>1</v>
-      </c>
-      <c r="V50" s="5">
-        <v>1</v>
-      </c>
-      <c r="W50" s="2" t="s">
+      <c r="S51" s="4">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6">
+        <v>1</v>
+      </c>
+      <c r="U51" s="5">
+        <v>1</v>
+      </c>
+      <c r="V51" s="5">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X50" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
+      <c r="X51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y51" s="14"/>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="15">
+      <c r="D52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="15">
         <v>0.15</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="4">
         <v>0.9</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>0.45</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <v>0.6</v>
       </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>1</v>
-      </c>
-      <c r="L51" s="6">
-        <v>1</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51">
-        <v>0.01</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4">
-        <v>1</v>
-      </c>
-      <c r="S51" s="4">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6">
-        <v>1</v>
-      </c>
-      <c r="U51" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="V51" s="5">
-        <v>1</v>
-      </c>
-      <c r="W51" t="s">
-        <v>104</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>1.94</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>29</v>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L52" s="6">
         <v>1</v>
@@ -4495,86 +4560,150 @@
         <v>1</v>
       </c>
       <c r="R52" s="4">
+        <v>1</v>
+      </c>
+      <c r="S52" s="4">
+        <v>0</v>
+      </c>
+      <c r="T52" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="U52" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V52" s="5">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
+        <v>103</v>
+      </c>
+      <c r="X52" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y52" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1.94</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53">
+        <v>0.01</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4">
         <v>2</v>
       </c>
-      <c r="S52" s="4">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6">
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+      <c r="T53" s="6">
         <v>1.3</v>
       </c>
-      <c r="U52" s="5">
+      <c r="U53" s="5">
         <v>6</v>
       </c>
-      <c r="V52" s="5">
+      <c r="V53" s="5">
         <v>1.3</v>
       </c>
-      <c r="W52" t="s">
-        <v>104</v>
-      </c>
-      <c r="X52" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="D53" s="7"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="O53" s="1"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="X53" s="7"/>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="9"/>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="D55" s="7"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="O55" s="1"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="X55" s="7"/>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="W53" t="s">
+        <v>103</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y53" s="7"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="D54" s="7"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="O54" s="1"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+    </row>
+    <row r="56" spans="1:25">
       <c r="D56" s="7"/>
       <c r="E56" s="15"/>
       <c r="F56" s="4"/>
@@ -4589,8 +4718,9 @@
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="X56" s="7"/>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" s="7"/>
+    </row>
+    <row r="57" spans="1:25">
       <c r="D57" s="7"/>
       <c r="E57" s="15"/>
       <c r="F57" s="4"/>
@@ -4605,8 +4735,9 @@
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="X57" s="7"/>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" s="7"/>
+    </row>
+    <row r="58" spans="1:25">
       <c r="D58" s="7"/>
       <c r="E58" s="15"/>
       <c r="F58" s="4"/>
@@ -4621,8 +4752,9 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="X58" s="7"/>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58" s="7"/>
+    </row>
+    <row r="59" spans="1:25">
       <c r="D59" s="7"/>
       <c r="E59" s="15"/>
       <c r="F59" s="4"/>
@@ -4637,8 +4769,9 @@
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="X59" s="7"/>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59" s="7"/>
+    </row>
+    <row r="60" spans="1:25">
       <c r="D60" s="7"/>
       <c r="E60" s="15"/>
       <c r="F60" s="4"/>
@@ -4653,8 +4786,9 @@
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
       <c r="X60" s="7"/>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60" s="7"/>
+    </row>
+    <row r="61" spans="1:25">
       <c r="D61" s="7"/>
       <c r="E61" s="15"/>
       <c r="F61" s="4"/>
@@ -4669,8 +4803,9 @@
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="X61" s="7"/>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61" s="7"/>
+    </row>
+    <row r="62" spans="1:25">
       <c r="D62" s="7"/>
       <c r="E62" s="15"/>
       <c r="F62" s="4"/>
@@ -4685,8 +4820,9 @@
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="X62" s="7"/>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62" s="7"/>
+    </row>
+    <row r="63" spans="1:25">
       <c r="D63" s="7"/>
       <c r="E63" s="15"/>
       <c r="F63" s="4"/>
@@ -4701,32 +4837,51 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="X63" s="7"/>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="9"/>
+      <c r="Y63" s="7"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="D64" s="7"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="O64" s="1"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4772,7 +4927,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -4786,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>63</v>
@@ -4806,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>82</v>
@@ -4820,16 +4975,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -4840,16 +4995,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="27735" windowHeight="9225"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="27735" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="136">
   <si>
     <t>Material</t>
   </si>
@@ -333,9 +333,6 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>0-2</t>
-  </si>
-  <si>
     <t>Bauxite</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>1-6</t>
   </si>
   <si>
-    <t>1-8</t>
-  </si>
-  <si>
     <t>5-15</t>
   </si>
   <si>
@@ -418,6 +412,18 @@
   </si>
   <si>
     <t>2x Cloth, 2x Chemfuel (Makes 3)</t>
+  </si>
+  <si>
+    <t>Grade 5 Titanium</t>
+  </si>
+  <si>
+    <t>1x Titanium, 1x Aluminium</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>242, 226, 121</t>
   </si>
 </sst>
 </file>
@@ -571,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:Y65" totalsRowShown="0">
-  <autoFilter ref="A3:Y65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:Y66" totalsRowShown="0">
+  <autoFilter ref="A3:Y66">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="5"/>
@@ -924,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Y65"/>
+  <dimension ref="A2:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R3" t="s">
         <v>22</v>
@@ -1041,7 +1047,7 @@
         <v>26</v>
       </c>
       <c r="Y3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1496,7 +1502,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1613,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P11">
         <v>0.01</v>
@@ -1688,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P12">
         <v>0.01</v>
@@ -1758,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P13">
         <v>0.01</v>
@@ -1898,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P15">
         <v>0.01</v>
@@ -2038,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17">
         <v>5.0000000000000001E-3</v>
@@ -2108,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P18">
         <v>5.0000000000000001E-3</v>
@@ -2178,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P19">
         <v>0.02</v>
@@ -2342,7 +2348,7 @@
         <v>1.4</v>
       </c>
       <c r="W21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
@@ -2671,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P26">
         <v>0.01</v>
@@ -2881,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P29">
         <v>0.01</v>
@@ -3495,7 +3501,7 @@
         <v>65</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y37" s="7"/>
     </row>
@@ -3576,7 +3582,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3597,7 +3603,7 @@
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="X39" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y39" s="7"/>
     </row>
@@ -3645,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P40">
         <v>0.01</v>
@@ -3673,7 +3679,7 @@
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3711,7 +3717,7 @@
         <v>1.05</v>
       </c>
       <c r="L41" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0.2</v>
@@ -3720,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P41">
         <v>0.01</v>
@@ -3735,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U41" s="5">
         <v>2.2000000000000002</v>
@@ -3748,7 +3754,7 @@
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -3759,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>14.8</v>
+        <v>12.5</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>8</v>
@@ -3768,13 +3774,13 @@
         <v>0.5</v>
       </c>
       <c r="F42" s="4">
-        <v>0.92500000000000004</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="G42" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H42" s="4">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -3783,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="6">
-        <v>1</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="L42" s="6">
         <v>1</v>
@@ -3801,19 +3807,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R42" s="4">
-        <v>1.1499999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="S42" s="4">
         <v>0</v>
       </c>
       <c r="T42" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U42" s="5">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="V42" s="5">
         <v>1.6</v>
@@ -3825,33 +3831,33 @@
         <v>100</v>
       </c>
       <c r="Y42" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.35</v>
       </c>
       <c r="F43" s="4">
-        <v>0.72</v>
+        <v>1.075</v>
       </c>
       <c r="G43" s="4">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H43" s="4">
-        <v>0.36</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -3860,58 +3866,60 @@
         <v>0</v>
       </c>
       <c r="K43" s="6">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="L43" s="6">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="P43">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4">
-        <v>0.6</v>
+        <v>2.25</v>
       </c>
       <c r="S43" s="4">
         <v>0</v>
       </c>
       <c r="T43" s="6">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="U43" s="5">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V43" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W43" s="2" t="s">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W43" t="s">
         <v>28</v>
       </c>
-      <c r="X43" s="7"/>
+      <c r="X43" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="Y43" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>7</v>
@@ -3940,20 +3948,20 @@
       <c r="L44" s="6">
         <v>1</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>29</v>
+      <c r="M44">
+        <v>0.1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="P44">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q44">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="R44" s="4">
         <v>0.6</v>
@@ -3970,43 +3978,41 @@
       <c r="V44" s="5">
         <v>0.9</v>
       </c>
-      <c r="W44" t="s">
-        <v>103</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="W44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X44" s="7"/>
       <c r="Y44" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>9.5</v>
+        <v>22.5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="15">
-        <v>0.1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F45" s="4">
-        <v>0.95</v>
+        <v>0.72</v>
       </c>
       <c r="G45" s="4">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="H45" s="4">
-        <v>0.75</v>
+        <v>0.36</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4015,7 +4021,7 @@
         <v>0.75</v>
       </c>
       <c r="L45" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>29</v>
@@ -4027,70 +4033,72 @@
         <v>29</v>
       </c>
       <c r="P45">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="R45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="6">
+        <v>1</v>
+      </c>
+      <c r="U45" s="5">
         <v>0.9</v>
       </c>
-      <c r="S45" s="4">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="U45" s="5">
-        <v>1</v>
-      </c>
       <c r="V45" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W45" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X45" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y45" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="15">
-        <v>0.42499999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F46" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="4">
         <v>0.6</v>
       </c>
-      <c r="G46" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0.47499999999999998</v>
-      </c>
       <c r="I46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K46" s="6">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="L46" s="6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>29</v>
@@ -4102,118 +4110,118 @@
         <v>29</v>
       </c>
       <c r="P46">
-        <v>0.25</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R46" s="4">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="S46" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T46" s="6">
         <v>1</v>
       </c>
       <c r="U46" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V46" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W46" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Y46" s="7"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G47" s="4">
         <v>0.45</v>
       </c>
-      <c r="F47" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.75</v>
-      </c>
       <c r="H47" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K47" s="6">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="L47" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0.5</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="P47">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" s="4">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="S47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="6">
         <v>1</v>
       </c>
       <c r="U47" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V47" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W47" t="s">
-        <v>110</v>
-      </c>
-      <c r="X47" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y47" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="19">
+        <v>219226233</v>
+      </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>8</v>
@@ -4222,13 +4230,13 @@
         <v>0.5</v>
       </c>
       <c r="F48" s="4">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G48" s="4">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H48" s="4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -4242,23 +4250,23 @@
       <c r="L48" s="6">
         <v>1</v>
       </c>
-      <c r="M48">
-        <v>0.5</v>
-      </c>
-      <c r="N48">
-        <v>8</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>129</v>
+      <c r="M48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R48" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S48" s="4">
         <v>0</v>
@@ -4273,37 +4281,39 @@
         <v>1</v>
       </c>
       <c r="W48" t="s">
-        <v>28</v>
-      </c>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="19">
-        <v>219226233</v>
+        <v>103</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2.85</v>
+        <v>11</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="15">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F49" s="4">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="G49" s="4">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="H49" s="4">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -4312,28 +4322,28 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L49" s="6">
         <v>1</v>
       </c>
-      <c r="M49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>29</v>
+      <c r="M49">
+        <v>0.1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="P49">
         <v>0.01</v>
       </c>
       <c r="Q49">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="R49" s="4">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="S49" s="4">
         <v>0</v>
@@ -4342,36 +4352,36 @@
         <v>1</v>
       </c>
       <c r="U49" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V49" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W49" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="Y49" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="4">
         <v>0.72</v>
@@ -4389,28 +4399,28 @@
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L50" s="6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M50">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P50">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R50" s="4">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="S50" s="4">
         <v>0</v>
@@ -4419,18 +4429,18 @@
         <v>1</v>
       </c>
       <c r="U50" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V50" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W50" t="s">
-        <v>112</v>
-      </c>
-      <c r="X50" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y50" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y50" s="14"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
@@ -4440,22 +4450,22 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="15">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="F51" s="4">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="G51" s="4">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="H51" s="4">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -4464,82 +4474,84 @@
         <v>0</v>
       </c>
       <c r="K51" s="6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L51" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="M51">
-        <v>0.5</v>
-      </c>
-      <c r="N51">
-        <v>45</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S51" s="4">
         <v>0</v>
       </c>
       <c r="T51" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U51" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V51" s="5">
         <v>1</v>
       </c>
-      <c r="W51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X51" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y51" s="14"/>
+      <c r="W51" t="s">
+        <v>103</v>
+      </c>
+      <c r="X51" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y51" s="17" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2.2000000000000002</v>
+        <v>1.94</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H52" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="6">
         <v>0.6</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>1</v>
       </c>
       <c r="L52" s="6">
         <v>1</v>
@@ -4560,165 +4572,177 @@
         <v>1</v>
       </c>
       <c r="R52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="4">
         <v>0</v>
       </c>
       <c r="T52" s="6">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="U52" s="5">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="V52" s="5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="W52" t="s">
         <v>103</v>
       </c>
-      <c r="X52" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y52" s="17" t="s">
-        <v>123</v>
-      </c>
+      <c r="X52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y52" s="7"/>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>29</v>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
       </c>
       <c r="K53" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53">
+        <v>0.25</v>
+      </c>
+      <c r="Q53">
+        <v>-1</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="S53" s="4">
+        <v>1</v>
+      </c>
+      <c r="T53" s="6">
+        <v>1</v>
+      </c>
+      <c r="U53" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="V53" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W53" t="s">
+        <v>109</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y53" s="7"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>4.8</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54">
+        <v>0.125</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S54" s="4">
+        <v>1</v>
+      </c>
+      <c r="T54" s="6">
+        <v>1</v>
+      </c>
+      <c r="U54" s="5">
         <v>0.6</v>
       </c>
-      <c r="L53" s="6">
-        <v>1</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P53">
-        <v>0.01</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4">
-        <v>2</v>
-      </c>
-      <c r="S53" s="4">
-        <v>0</v>
-      </c>
-      <c r="T53" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="U53" s="5">
-        <v>6</v>
-      </c>
-      <c r="V53" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="W53" t="s">
-        <v>103</v>
-      </c>
-      <c r="X53" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y53" s="7"/>
-    </row>
-    <row r="54" spans="1:25">
-      <c r="D54" s="7"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="O54" s="1"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="X54" s="7"/>
+      <c r="V54" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W54" t="s">
+        <v>109</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="Y54" s="7"/>
-    </row>
-    <row r="55" spans="1:25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-    </row>
-    <row r="56" spans="1:25">
-      <c r="D56" s="7"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="O56" s="1"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
     </row>
     <row r="57" spans="1:25">
       <c r="D57" s="7"/>
@@ -4857,31 +4881,48 @@
       <c r="Y64" s="7"/>
     </row>
     <row r="65" spans="1:25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="O65" s="1"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4899,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4927,7 +4968,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -4978,7 +5019,7 @@
         <v>97</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
@@ -4995,7 +5036,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5004,7 +5045,7 @@
         <v>99</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="27735" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="27735" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="135">
   <si>
     <t>Material</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Mined &amp; Smelter</t>
   </si>
   <si>
-    <t>Epoxy Granite</t>
-  </si>
-  <si>
     <t>Epoxy</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Makes</t>
   </si>
   <si>
-    <t>9 Granite Blocks, 1 Epoxy (Makes 10)</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -424,6 +418,9 @@
   </si>
   <si>
     <t>242, 226, 121</t>
+  </si>
+  <si>
+    <t>222, 184, 135</t>
   </si>
 </sst>
 </file>
@@ -577,8 +574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:Y66" totalsRowShown="0">
-  <autoFilter ref="A3:Y66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:Y65" totalsRowShown="0">
+  <autoFilter ref="A3:Y65">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="5"/>
@@ -930,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Y66"/>
+  <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1047,7 +1044,7 @@
         <v>26</v>
       </c>
       <c r="Y3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1619,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P11">
         <v>0.01</v>
@@ -1694,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P12">
         <v>0.01</v>
@@ -1764,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P13">
         <v>0.01</v>
@@ -1904,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P15">
         <v>0.01</v>
@@ -2044,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P17">
         <v>5.0000000000000001E-3</v>
@@ -2114,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P18">
         <v>5.0000000000000001E-3</v>
@@ -2184,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P19">
         <v>0.02</v>
@@ -2348,7 +2345,7 @@
         <v>1.4</v>
       </c>
       <c r="W21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
@@ -2677,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P26">
         <v>0.01</v>
@@ -2887,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P29">
         <v>0.01</v>
@@ -3501,7 +3498,7 @@
         <v>65</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y37" s="7"/>
     </row>
@@ -3582,7 +3579,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3603,7 +3600,7 @@
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="X39" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y39" s="7"/>
     </row>
@@ -3651,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P40">
         <v>0.01</v>
@@ -3679,7 +3676,7 @@
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3726,7 +3723,7 @@
         <v>4</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P41">
         <v>0.01</v>
@@ -3754,7 +3751,7 @@
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -3831,12 +3828,12 @@
         <v>100</v>
       </c>
       <c r="Y42" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3878,7 +3875,7 @@
         <v>4</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P43">
         <v>0.01</v>
@@ -3905,10 +3902,10 @@
         <v>28</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -3983,7 +3980,7 @@
       </c>
       <c r="X44" s="7"/>
       <c r="Y44" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -4060,7 +4057,7 @@
         <v>81</v>
       </c>
       <c r="Y45" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -4182,7 +4179,7 @@
         <v>8</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4287,7 +4284,7 @@
         <v>102</v>
       </c>
       <c r="Y48" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4334,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P49">
         <v>0.01</v>
@@ -4364,7 +4361,7 @@
         <v>80</v>
       </c>
       <c r="Y49" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4411,7 +4408,7 @@
         <v>5</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4516,45 +4513,45 @@
         <v>107</v>
       </c>
       <c r="Y51" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>29</v>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
       </c>
       <c r="K52" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L52" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>29</v>
@@ -4566,58 +4563,60 @@
         <v>29</v>
       </c>
       <c r="P52">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R52" s="4">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="S52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="6">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="U52" s="5">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="V52" s="5">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="X52" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y52" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="Y52" s="19" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="15">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="F53" s="4">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G53" s="4">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H53" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I53">
         <v>8</v>
@@ -4626,10 +4625,10 @@
         <v>4</v>
       </c>
       <c r="K53" s="6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="L53" s="6">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>29</v>
@@ -4641,13 +4640,13 @@
         <v>29</v>
       </c>
       <c r="P53">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R53" s="4">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="S53" s="4">
         <v>1</v>
@@ -4656,93 +4655,35 @@
         <v>1</v>
       </c>
       <c r="U53" s="5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V53" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W53" t="s">
         <v>109</v>
       </c>
       <c r="X53" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="1:25">
-      <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>4.8</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="15">
-        <v>0.45</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-      <c r="J54">
-        <v>4</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54">
-        <v>0.125</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="S54" s="4">
-        <v>1</v>
-      </c>
-      <c r="T54" s="6">
-        <v>1</v>
-      </c>
-      <c r="U54" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="V54" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="W54" t="s">
-        <v>109</v>
-      </c>
-      <c r="X54" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y54" s="7"/>
+    <row r="56" spans="1:25">
+      <c r="D56" s="7"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="O56" s="1"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
     </row>
     <row r="57" spans="1:25">
       <c r="D57" s="7"/>
@@ -4881,48 +4822,31 @@
       <c r="Y64" s="7"/>
     </row>
     <row r="65" spans="1:25">
-      <c r="D65" s="7"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="O65" s="1"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-    </row>
-    <row r="66" spans="1:25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4940,7 +4864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4968,7 +4892,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -5036,7 +4960,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5045,7 +4969,7 @@
         <v>99</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -930,7 +930,7 @@
   <dimension ref="A2:Y65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4524,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>8</v>
@@ -4601,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>8</v>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="135">
   <si>
     <t>Material</t>
   </si>
@@ -405,9 +405,6 @@
     <t>2x Cloth, 1x Chemfuel (Makes 2)</t>
   </si>
   <si>
-    <t>2x Cloth, 2x Chemfuel (Makes 3)</t>
-  </si>
-  <si>
     <t>Grade 5 Titanium</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>222, 184, 135</t>
+  </si>
+  <si>
+    <t>2x Cloth, 2x Chemfuel (Makes 4)</t>
   </si>
 </sst>
 </file>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3180,7 +3180,7 @@
         <v>29</v>
       </c>
       <c r="P33">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -3584,23 +3584,71 @@
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="1"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
+      <c r="C39">
+        <v>1.9</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U39" s="5">
+        <v>1</v>
+      </c>
+      <c r="V39" s="5">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
+        <v>99</v>
+      </c>
       <c r="X39" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Y39" s="7"/>
     </row>
@@ -3833,7 +3881,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3902,7 +3950,7 @@
         <v>28</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y43" s="7" t="s">
         <v>123</v>
@@ -4179,7 +4227,7 @@
         <v>8</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4361,7 +4409,7 @@
         <v>80</v>
       </c>
       <c r="Y49" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4590,7 +4638,7 @@
         <v>94</v>
       </c>
       <c r="Y52" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:25">

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="144">
   <si>
     <t>Material</t>
   </si>
@@ -421,6 +421,33 @@
   </si>
   <si>
     <t>2x Cloth, 2x Chemfuel (Makes 4)</t>
+  </si>
+  <si>
+    <t>Silicon Carbide</t>
+  </si>
+  <si>
+    <t>Zirconia Ceramic</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Medical Recovery Bonus</t>
+  </si>
+  <si>
+    <t>Aluminium Oxide</t>
+  </si>
+  <si>
+    <t>Kaolinite</t>
+  </si>
+  <si>
+    <t>Porcelain</t>
+  </si>
+  <si>
+    <t>1x Kaolinite</t>
+  </si>
+  <si>
+    <t>Clay </t>
   </si>
 </sst>
 </file>
@@ -512,7 +539,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -574,8 +604,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:Y65" totalsRowShown="0">
-  <autoFilter ref="A3:Y65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:Z65" totalsRowShown="0">
+  <autoFilter ref="A3:Z65">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="5"/>
@@ -591,33 +621,35 @@
     <filterColumn colId="22"/>
     <filterColumn colId="23"/>
     <filterColumn colId="24"/>
+    <filterColumn colId="25"/>
   </autoFilter>
-  <tableColumns count="25">
+  <tableColumns count="26">
     <tableColumn id="1" name="Material"/>
     <tableColumn id="13" name="Vol"/>
     <tableColumn id="2" name="Value"/>
-    <tableColumn id="18" name="Volume" dataDxfId="16"/>
-    <tableColumn id="3" name="Mass" dataDxfId="15"/>
-    <tableColumn id="37" name="Ar-Sharp" dataDxfId="14"/>
-    <tableColumn id="38" name="Ar-Blunt" dataDxfId="13"/>
-    <tableColumn id="39" name="Ar-Heat" dataDxfId="12"/>
+    <tableColumn id="18" name="Volume" dataDxfId="17"/>
+    <tableColumn id="3" name="Mass" dataDxfId="16"/>
+    <tableColumn id="37" name="Ar-Sharp" dataDxfId="15"/>
+    <tableColumn id="38" name="Ar-Blunt" dataDxfId="14"/>
+    <tableColumn id="39" name="Ar-Heat" dataDxfId="13"/>
     <tableColumn id="40" name="InsulCold"/>
     <tableColumn id="35" name="InsulHeat"/>
-    <tableColumn id="36" name="SharpDam" dataDxfId="11"/>
-    <tableColumn id="34" name="BluntDam" dataDxfId="10"/>
+    <tableColumn id="36" name="SharpDam" dataDxfId="12"/>
+    <tableColumn id="34" name="BluntDam" dataDxfId="11"/>
     <tableColumn id="7" name="deepChance"/>
     <tableColumn id="8" name="deepCountPP"/>
-    <tableColumn id="9" name="deepLumpSize" dataDxfId="9"/>
+    <tableColumn id="9" name="deepLumpSize" dataDxfId="10"/>
     <tableColumn id="25" name="Commonality"/>
     <tableColumn id="5" name="Beauty Stat Offset"/>
-    <tableColumn id="6" name="HP" dataDxfId="8"/>
-    <tableColumn id="11" name="Flammability" dataDxfId="7"/>
-    <tableColumn id="10" name="MWCooldown" dataDxfId="6"/>
-    <tableColumn id="43" name="ToBuild" dataDxfId="5"/>
-    <tableColumn id="44" name="ToMake" dataDxfId="4"/>
+    <tableColumn id="6" name="HP" dataDxfId="9"/>
+    <tableColumn id="11" name="Flammability" dataDxfId="8"/>
+    <tableColumn id="10" name="MWCooldown" dataDxfId="7"/>
+    <tableColumn id="43" name="ToBuild" dataDxfId="6"/>
+    <tableColumn id="44" name="ToMake" dataDxfId="5"/>
     <tableColumn id="42" name="Made At:"/>
-    <tableColumn id="41" name="Receipe" dataDxfId="3"/>
-    <tableColumn id="4" name="Column1" dataDxfId="2"/>
+    <tableColumn id="41" name="Receipe" dataDxfId="4"/>
+    <tableColumn id="12" name="Column2" dataDxfId="0"/>
+    <tableColumn id="4" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -634,8 +666,8 @@
     <tableColumn id="1" name="Precusor"/>
     <tableColumn id="12" name="Vol"/>
     <tableColumn id="4" name="Made At:"/>
-    <tableColumn id="2" name="Made from" dataDxfId="1"/>
-    <tableColumn id="5" name="Makes" dataDxfId="0"/>
+    <tableColumn id="2" name="Made from" dataDxfId="2"/>
+    <tableColumn id="5" name="Makes" dataDxfId="1"/>
     <tableColumn id="3" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -927,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Y65"/>
+  <dimension ref="A2:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,10 +990,11 @@
     <col min="22" max="22" width="10" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="51.7109375" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="25" max="25" width="24.85546875" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="C2" t="s">
         <v>31</v>
       </c>
@@ -970,7 +1003,7 @@
       </c>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1044,10 +1077,13 @@
         <v>26</v>
       </c>
       <c r="Y3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1121,8 +1157,9 @@
         <v>29</v>
       </c>
       <c r="Y4" s="14"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1196,8 +1233,9 @@
         <v>29</v>
       </c>
       <c r="Y5" s="14"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1271,8 +1309,9 @@
         <v>29</v>
       </c>
       <c r="Y6" s="14"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1346,8 +1385,9 @@
         <v>29</v>
       </c>
       <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1421,8 +1461,9 @@
         <v>29</v>
       </c>
       <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1496,8 +1537,9 @@
         <v>29</v>
       </c>
       <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="3" t="s">
         <v>108</v>
       </c>
@@ -1571,8 +1613,9 @@
         <v>29</v>
       </c>
       <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1646,8 +1689,9 @@
         <v>29</v>
       </c>
       <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1716,8 +1760,9 @@
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1786,8 +1831,9 @@
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1856,8 +1902,9 @@
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1926,8 +1973,9 @@
       </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1996,8 +2044,9 @@
       </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2066,8 +2115,9 @@
       </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2136,8 +2186,9 @@
       </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2206,8 +2257,9 @@
       </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2276,8 +2328,9 @@
       </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
@@ -2349,8 +2402,9 @@
       </c>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" s="7"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2419,8 +2473,9 @@
       </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" s="7"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2489,8 +2544,9 @@
       </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" s="7"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2559,8 +2615,9 @@
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" s="7"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2629,8 +2686,9 @@
       </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2699,8 +2757,9 @@
       </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2769,8 +2828,9 @@
       </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2839,8 +2899,9 @@
       </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" s="7"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2909,8 +2970,9 @@
       </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" s="7"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2918,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
@@ -2942,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="6">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L30" s="6">
         <v>1</v>
@@ -2982,8 +3044,9 @@
       </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" s="7"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3057,8 +3120,9 @@
         <v>93</v>
       </c>
       <c r="Y31" s="7"/>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" s="7"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3132,8 +3196,9 @@
         <v>98</v>
       </c>
       <c r="Y32" s="7"/>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" s="7"/>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -3207,8 +3272,9 @@
         <v>83</v>
       </c>
       <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" s="7"/>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -3280,8 +3346,9 @@
       </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" s="7"/>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -3353,8 +3420,9 @@
       </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" s="7"/>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -3426,8 +3494,9 @@
       </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" s="7"/>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3501,8 +3570,9 @@
         <v>128</v>
       </c>
       <c r="Y37" s="7"/>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" s="7"/>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -3576,8 +3646,9 @@
         <v>92</v>
       </c>
       <c r="Y38" s="7"/>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" s="7"/>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -3651,8 +3722,9 @@
         <v>134</v>
       </c>
       <c r="Y39" s="7"/>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" s="7"/>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +3798,9 @@
       <c r="Y40" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" s="7"/>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -3801,8 +3874,9 @@
       <c r="Y41" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" s="7"/>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3834,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="6">
-        <v>1.0649999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="L42" s="6">
         <v>1</v>
@@ -3878,8 +3952,9 @@
       <c r="Y42" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -3916,14 +3991,14 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43">
-        <v>0.2</v>
-      </c>
-      <c r="N43">
-        <v>4</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>125</v>
+      <c r="M43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P43">
         <v>0.01</v>
@@ -3932,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="4">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S43" s="4">
         <v>0</v>
@@ -3955,8 +4030,9 @@
       <c r="Y43" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -4030,8 +4106,9 @@
       <c r="Y44" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" s="7"/>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -4107,8 +4184,9 @@
       <c r="Y45" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" s="7"/>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -4182,8 +4260,9 @@
         <v>101</v>
       </c>
       <c r="Y46" s="7"/>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" s="7"/>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -4257,8 +4336,9 @@
       <c r="Y47" s="19">
         <v>219226233</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -4334,8 +4414,9 @@
       <c r="Y48" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" s="7"/>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -4411,8 +4492,9 @@
       <c r="Y49" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" s="7"/>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -4486,8 +4568,9 @@
         <v>29</v>
       </c>
       <c r="Y50" s="14"/>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" s="7"/>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -4563,8 +4646,9 @@
       <c r="Y51" s="17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" s="7"/>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -4640,8 +4724,9 @@
       <c r="Y52" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" s="7"/>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -4715,8 +4800,35 @@
         <v>95</v>
       </c>
       <c r="Y53" s="7"/>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z53" s="7"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="7"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="15"/>
       <c r="F56" s="4"/>
@@ -4732,8 +4844,15 @@
       <c r="V56" s="5"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" s="7"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="15"/>
       <c r="F57" s="4"/>
@@ -4749,8 +4868,15 @@
       <c r="V57" s="5"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" s="7"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="15"/>
       <c r="F58" s="4"/>
@@ -4764,10 +4890,19 @@
       <c r="T58" s="6"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="X58" s="7"/>
+      <c r="X58" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="Y58" s="7"/>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" s="7"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="15"/>
       <c r="F59" s="4"/>
@@ -4783,8 +4918,9 @@
       <c r="V59" s="5"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" s="7"/>
+    </row>
+    <row r="60" spans="1:26">
       <c r="D60" s="7"/>
       <c r="E60" s="15"/>
       <c r="F60" s="4"/>
@@ -4800,8 +4936,9 @@
       <c r="V60" s="5"/>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" s="7"/>
+    </row>
+    <row r="61" spans="1:26">
       <c r="D61" s="7"/>
       <c r="E61" s="15"/>
       <c r="F61" s="4"/>
@@ -4817,8 +4954,9 @@
       <c r="V61" s="5"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" s="7"/>
+    </row>
+    <row r="62" spans="1:26">
       <c r="D62" s="7"/>
       <c r="E62" s="15"/>
       <c r="F62" s="4"/>
@@ -4834,8 +4972,9 @@
       <c r="V62" s="5"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" s="7"/>
+    </row>
+    <row r="63" spans="1:26">
       <c r="D63" s="7"/>
       <c r="E63" s="15"/>
       <c r="F63" s="4"/>
@@ -4851,8 +4990,9 @@
       <c r="V63" s="5"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" s="7"/>
+    </row>
+    <row r="64" spans="1:26">
       <c r="D64" s="7"/>
       <c r="E64" s="15"/>
       <c r="F64" s="4"/>
@@ -4868,8 +5008,9 @@
       <c r="V64" s="5"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" s="7"/>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4895,6 +5036,7 @@
       <c r="W65" s="8"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
+      <c r="Z65" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="149">
   <si>
     <t>Material</t>
   </si>
@@ -435,12 +435,6 @@
     <t>Medical Recovery Bonus</t>
   </si>
   <si>
-    <t>Aluminium Oxide</t>
-  </si>
-  <si>
-    <t>Kaolinite</t>
-  </si>
-  <si>
     <t>Porcelain</t>
   </si>
   <si>
@@ -448,6 +442,27 @@
   </si>
   <si>
     <t>Clay </t>
+  </si>
+  <si>
+    <t>Moissanite</t>
+  </si>
+  <si>
+    <t>1x Moissanite</t>
+  </si>
+  <si>
+    <t>Baddeleyite</t>
+  </si>
+  <si>
+    <t>1x Baddeleyite</t>
+  </si>
+  <si>
+    <t>Alumina </t>
+  </si>
+  <si>
+    <t>1x Aluminium</t>
+  </si>
+  <si>
+    <t>Kaolinite Clay</t>
   </si>
 </sst>
 </file>
@@ -544,10 +559,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -648,8 +663,8 @@
     <tableColumn id="44" name="ToMake" dataDxfId="5"/>
     <tableColumn id="42" name="Made At:"/>
     <tableColumn id="41" name="Receipe" dataDxfId="4"/>
-    <tableColumn id="12" name="Column2" dataDxfId="0"/>
-    <tableColumn id="4" name="Column1" dataDxfId="3"/>
+    <tableColumn id="12" name="Column2" dataDxfId="3"/>
+    <tableColumn id="4" name="Column1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,8 +681,8 @@
     <tableColumn id="1" name="Precusor"/>
     <tableColumn id="12" name="Vol"/>
     <tableColumn id="4" name="Made At:"/>
-    <tableColumn id="2" name="Made from" dataDxfId="2"/>
-    <tableColumn id="5" name="Makes" dataDxfId="1"/>
+    <tableColumn id="2" name="Made from" dataDxfId="1"/>
+    <tableColumn id="5" name="Makes" dataDxfId="0"/>
     <tableColumn id="3" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -961,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4804,27 +4819,49 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="O54" s="1"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" t="s">
+        <v>28</v>
+      </c>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="Z55" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="W55" t="s">
+        <v>103</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -4842,37 +4879,33 @@
       <c r="T56" s="6"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
+      <c r="W56" t="s">
+        <v>28</v>
+      </c>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="O57" s="1"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
+      <c r="W57" t="s">
+        <v>103</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -4890,15 +4923,18 @@
       <c r="T58" s="6"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
+      <c r="W58" t="s">
+        <v>103</v>
+      </c>
       <c r="X58" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -4916,11 +4952,20 @@
       <c r="T59" s="6"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
+      <c r="W59" t="s">
+        <v>28</v>
+      </c>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="1:26">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="15"/>
       <c r="F60" s="4"/>
@@ -4934,11 +4979,22 @@
       <c r="T60" s="6"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
-      <c r="X60" s="7"/>
+      <c r="W60" t="s">
+        <v>103</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="1:26">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="15"/>
       <c r="F61" s="4"/>
@@ -4952,6 +5008,9 @@
       <c r="T61" s="6"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
+      <c r="W61" t="s">
+        <v>28</v>
+      </c>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>

--- a/Resources/Stats.xlsx
+++ b/Resources/Stats.xlsx
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>8</v>
@@ -1756,7 +1756,7 @@
         <v>0.01</v>
       </c>
       <c r="Q12">
-        <v>18.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="R12" s="4">
         <v>0.6</v>
@@ -1818,10 +1818,10 @@
         <v>0.2</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P13">
         <v>0.01</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
@@ -1889,16 +1889,16 @@
         <v>0.2</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>104</v>
       </c>
       <c r="P14">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R14" s="4">
         <v>0.6</v>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>8</v>
@@ -2031,16 +2031,16 @@
         <v>0.2</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>104</v>
       </c>
       <c r="P16">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R16" s="4">
         <v>0.6</v>
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>8</v>
@@ -2244,16 +2244,16 @@
         <v>0.2</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="P19">
         <v>0.02</v>
       </c>
       <c r="Q19">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="R19" s="4">
         <v>0.6</v>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -2315,16 +2315,16 @@
         <v>0.2</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>0.03</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R20" s="4">
         <v>0.6</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -2395,7 +2395,7 @@
         <v>0.01</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R21" s="4">
         <v>0.6</v>
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2.2999999999999998</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>8</v>
@@ -2460,16 +2460,16 @@
         <v>0.2</v>
       </c>
       <c r="N22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="P22">
         <v>0.01</v>
       </c>
       <c r="Q22">
-        <v>4.5999999999999996</v>
+        <v>10</v>
       </c>
       <c r="R22" s="4">
         <v>0.6</v>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>8</v>
@@ -2531,16 +2531,16 @@
         <v>0.2</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="P23">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q23">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="R23" s="4">
         <v>0.6</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>8</v>
@@ -2611,7 +2611,7 @@
         <v>0.04</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R24" s="4">
         <v>0.6</v>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>8</v>
@@ -2682,7 +2682,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R25" s="4">
         <v>0.6</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
@@ -2753,7 +2753,7 @@
         <v>0.01</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R26" s="4">
         <v>0.6</v>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
@@ -2815,16 +2815,16 @@
         <v>0.2</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="P27">
         <v>0.02</v>
       </c>
       <c r="Q27">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="R27" s="4">
         <v>0.6</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>8</v>
@@ -2886,16 +2886,16 @@
         <v>0.2</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="P28">
         <v>0.03</v>
       </c>
       <c r="Q28">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="R28" s="4">
         <v>0.6</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
@@ -2966,7 +2966,7 @@
         <v>0.01</v>
       </c>
       <c r="Q29">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="R29" s="4">
         <v>0.6</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
@@ -3037,7 +3037,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q30">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="R30" s="4">
         <v>0.9</v>
@@ -3692,7 +3692,7 @@
         <v>14</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>29</v>
@@ -4285,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>1.9</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>8</v>
@@ -4361,7 +4361,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>8</v>
@@ -4439,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>7</v>
@@ -4481,7 +4481,7 @@
         <v>0.01</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="R49" s="4">
         <v>0.65</v>
